--- a/Code/Results/Cases/Case_2_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.268566891080781</v>
+        <v>0.7974165678998304</v>
       </c>
       <c r="C2">
-        <v>0.1838314768321823</v>
+        <v>0.08833590539570935</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1317418097555603</v>
+        <v>0.1646067732740342</v>
       </c>
       <c r="F2">
-        <v>2.41447689938677</v>
+        <v>3.205780380381213</v>
       </c>
       <c r="G2">
-        <v>0.0008353576924276013</v>
+        <v>0.002551435093365505</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08184314710904061</v>
+        <v>0.1419999282367996</v>
       </c>
       <c r="K2">
-        <v>1.358299861762163</v>
+        <v>0.8078892130485826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5117082400890425</v>
+        <v>0.4005836055683574</v>
       </c>
       <c r="N2">
-        <v>1.893690667072164</v>
+        <v>3.056378165865667</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.107853708221143</v>
+        <v>0.758356083015201</v>
       </c>
       <c r="C3">
-        <v>0.1590756393961357</v>
+        <v>0.08216649578149315</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1153459377592689</v>
+        <v>0.161962656734314</v>
       </c>
       <c r="F3">
-        <v>2.23086602538686</v>
+        <v>3.174920944638288</v>
       </c>
       <c r="G3">
-        <v>0.0008420809404422677</v>
+        <v>0.002555540182250857</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0823996220693779</v>
+        <v>0.1423908577401889</v>
       </c>
       <c r="K3">
-        <v>1.18361960321576</v>
+        <v>0.7651800901005856</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4466784088302944</v>
+        <v>0.3865647714351752</v>
       </c>
       <c r="N3">
-        <v>1.909707867137215</v>
+        <v>3.064247697972036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.010793563395964</v>
+        <v>0.7348552175842258</v>
       </c>
       <c r="C4">
-        <v>0.1441302498677999</v>
+        <v>0.07843218227955617</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1054081553108439</v>
+        <v>0.1604331549223623</v>
       </c>
       <c r="F4">
-        <v>2.121895333177193</v>
+        <v>3.157491198159846</v>
       </c>
       <c r="G4">
-        <v>0.000846326359587195</v>
+        <v>0.002558192972678227</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08283462613936976</v>
+        <v>0.1426675231180283</v>
       </c>
       <c r="K4">
-        <v>1.078129189741446</v>
+        <v>0.7394490462849319</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4073522276677934</v>
+        <v>0.378205603375271</v>
       </c>
       <c r="N4">
-        <v>1.921555512430871</v>
+        <v>3.069812667018795</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.971601923624803</v>
+        <v>0.7253994948787579</v>
       </c>
       <c r="C5">
-        <v>0.1380957507093683</v>
+        <v>0.07692383711302853</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1013877023005421</v>
+        <v>0.1598335466216341</v>
       </c>
       <c r="F5">
-        <v>2.078362645685814</v>
+        <v>3.150769788022714</v>
       </c>
       <c r="G5">
-        <v>0.0008480869087611201</v>
+        <v>0.002559307369848392</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0830342259353003</v>
+        <v>0.1427894683138007</v>
       </c>
       <c r="K5">
-        <v>1.035533143908083</v>
+        <v>0.7290869425008566</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3914611918548658</v>
+        <v>0.37486162084911</v>
       </c>
       <c r="N5">
-        <v>1.92686582369042</v>
+        <v>3.072264479576361</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9651147164510405</v>
+        <v>0.7238366848620501</v>
       </c>
       <c r="C6">
-        <v>0.1370968727058681</v>
+        <v>0.07667418527485381</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1007217861402836</v>
+        <v>0.1597354132896953</v>
       </c>
       <c r="F6">
-        <v>2.071184794962861</v>
+        <v>3.14967672496357</v>
       </c>
       <c r="G6">
-        <v>0.0008483811174183239</v>
+        <v>0.002559494433059656</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08306868657601996</v>
+        <v>0.1428102727032083</v>
       </c>
       <c r="K6">
-        <v>1.028482354048663</v>
+        <v>0.7273737725908518</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3888301645610639</v>
+        <v>0.37431012592846</v>
       </c>
       <c r="N6">
-        <v>1.927776060609858</v>
+        <v>3.072682708549436</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.010263607129389</v>
+        <v>0.7347272045050772</v>
       </c>
       <c r="C7">
-        <v>0.1440486506933638</v>
+        <v>0.07841178600243381</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1053538196914054</v>
+        <v>0.1604249724774043</v>
       </c>
       <c r="F7">
-        <v>2.121304791820492</v>
+        <v>3.157399007298807</v>
       </c>
       <c r="G7">
-        <v>0.0008463499782242416</v>
+        <v>0.002558207866613258</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08283722902736912</v>
+        <v>0.1426691304690735</v>
       </c>
       <c r="K7">
-        <v>1.077553202057857</v>
+        <v>0.7393087997130294</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4071373915316769</v>
+        <v>0.3781602524510248</v>
       </c>
       <c r="N7">
-        <v>1.921625206645871</v>
+        <v>3.069844988240021</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.212788450412575</v>
+        <v>0.7838482239577615</v>
       </c>
       <c r="C8">
-        <v>0.175237644580136</v>
+        <v>0.08619748341266131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1260596379243388</v>
+        <v>0.1636755954116396</v>
       </c>
       <c r="F8">
-        <v>2.35034008441086</v>
+        <v>3.194824723888274</v>
       </c>
       <c r="G8">
-        <v>0.0008376521455069231</v>
+        <v>0.002552823145081367</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08201493848580554</v>
+        <v>0.1421271114510994</v>
       </c>
       <c r="K8">
-        <v>1.297671841845471</v>
+        <v>0.7930606580086419</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4891504438071905</v>
+        <v>0.395698321410805</v>
       </c>
       <c r="N8">
-        <v>1.898780665642832</v>
+        <v>3.058939261869853</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.625041020761643</v>
+        <v>0.8840193265573077</v>
       </c>
       <c r="C9">
-        <v>0.2388271593704445</v>
+        <v>0.1018966026306742</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.167849978304389</v>
+        <v>0.1707947048579044</v>
       </c>
       <c r="F9">
-        <v>2.832984613394359</v>
+        <v>3.28028657032516</v>
       </c>
       <c r="G9">
-        <v>0.0008214773933762877</v>
+        <v>0.002543308108356596</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08119903877955537</v>
+        <v>0.1413553749022611</v>
       </c>
       <c r="K9">
-        <v>1.745859543708093</v>
+        <v>0.902398138992254</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6555848359271934</v>
+        <v>0.4320655779745124</v>
       </c>
       <c r="N9">
-        <v>1.871128087219418</v>
+        <v>3.04338334812465</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.940599986862622</v>
+        <v>0.9599916247516944</v>
       </c>
       <c r="C10">
-        <v>0.2876533449905025</v>
+        <v>0.1137020496832406</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1995207576507525</v>
+        <v>0.1764783610762919</v>
       </c>
       <c r="F10">
-        <v>3.213544891301382</v>
+        <v>3.350479487285099</v>
       </c>
       <c r="G10">
-        <v>0.0008100564830835797</v>
+        <v>0.002536947147707674</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08117171252172994</v>
+        <v>0.1409666341701765</v>
       </c>
       <c r="K10">
-        <v>2.089125890573769</v>
+        <v>0.9851647880634289</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7825506506190862</v>
+        <v>0.4599975476568687</v>
       </c>
       <c r="N10">
-        <v>1.863059269177668</v>
+        <v>3.035528975784899</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.087776036427499</v>
+        <v>0.9950771101892997</v>
       </c>
       <c r="C11">
-        <v>0.3104811561468352</v>
+        <v>0.1191334506376052</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2141989447472525</v>
+        <v>0.1791623379024685</v>
       </c>
       <c r="F11">
-        <v>3.393689583515453</v>
+        <v>3.384030539546131</v>
       </c>
       <c r="G11">
-        <v>0.0008049428051779019</v>
+        <v>0.0025341886415407</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08130545010009982</v>
+        <v>0.140828664746973</v>
       </c>
       <c r="K11">
-        <v>2.249299994625289</v>
+        <v>1.023355915202785</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8416443338081763</v>
+        <v>0.4729700678933213</v>
       </c>
       <c r="N11">
-        <v>1.862499257984751</v>
+        <v>3.032736544231383</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.144110096360748</v>
+        <v>1.008439050703601</v>
       </c>
       <c r="C12">
-        <v>0.3192289663021768</v>
+        <v>0.1211990862408072</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2198016824595967</v>
+        <v>0.1801928239326855</v>
       </c>
       <c r="F12">
-        <v>3.46304471251355</v>
+        <v>3.396969063053405</v>
       </c>
       <c r="G12">
-        <v>0.0008030164414898198</v>
+        <v>0.002533163385515413</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0813792010836778</v>
+        <v>0.140782022753708</v>
       </c>
       <c r="K12">
-        <v>2.310623113473497</v>
+        <v>1.037896145337783</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8642430579335496</v>
+        <v>0.4779207979928302</v>
       </c>
       <c r="N12">
-        <v>1.862777147870204</v>
+        <v>3.031791733152502</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.131949418353202</v>
+        <v>1.005557940540257</v>
       </c>
       <c r="C13">
-        <v>0.3173401163295466</v>
+        <v>0.1207538179582457</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2185929640319628</v>
+        <v>0.1799702627901141</v>
       </c>
       <c r="F13">
-        <v>3.448055036315793</v>
+        <v>3.394172128510917</v>
       </c>
       <c r="G13">
-        <v>0.0008034308989933687</v>
+        <v>0.00253338333468738</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08136225385928952</v>
+        <v>0.1407918184670365</v>
       </c>
       <c r="K13">
-        <v>2.297384795372579</v>
+        <v>1.034761167503916</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8593656830053078</v>
+        <v>0.4768528646546031</v>
       </c>
       <c r="N13">
-        <v>1.862694777723746</v>
+        <v>3.031990200137912</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.092398124534157</v>
+        <v>0.9961748836698803</v>
       </c>
       <c r="C14">
-        <v>0.3111986806255516</v>
+        <v>0.1193032131133975</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2146589617794632</v>
+        <v>0.1792468337763466</v>
       </c>
       <c r="F14">
-        <v>3.399371877922107</v>
+        <v>3.385090317579738</v>
       </c>
       <c r="G14">
-        <v>0.0008047841304617662</v>
+        <v>0.002534103906469687</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08131104168365511</v>
+        <v>0.1408247150849178</v>
       </c>
       <c r="K14">
-        <v>2.254331129575689</v>
+        <v>1.02455058151935</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8434989331488225</v>
+        <v>0.4733765991903311</v>
       </c>
       <c r="N14">
-        <v>1.86251203931721</v>
+        <v>3.03265655475569</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.068252699440393</v>
+        <v>0.9904373742701296</v>
       </c>
       <c r="C15">
-        <v>0.3074508081662373</v>
+        <v>0.1184158355596026</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2122552286764758</v>
+        <v>0.1788055507193604</v>
       </c>
       <c r="F15">
-        <v>3.369704300623255</v>
+        <v>3.379557866298512</v>
       </c>
       <c r="G15">
-        <v>0.0008056142830926905</v>
+        <v>0.002534547791865763</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08128274821531534</v>
+        <v>0.1408455954591226</v>
       </c>
       <c r="K15">
-        <v>2.228049451209841</v>
+        <v>1.018306483127361</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8338098165728454</v>
+        <v>0.471252277899417</v>
       </c>
       <c r="N15">
-        <v>1.862465260712455</v>
+        <v>3.033079394240275</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.931061323748537</v>
+        <v>0.9577093009161217</v>
       </c>
       <c r="C16">
-        <v>0.2861751238894499</v>
+        <v>0.1133483320670621</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1985674112263993</v>
+        <v>0.1763049349835555</v>
       </c>
       <c r="F16">
-        <v>3.201924021552344</v>
+        <v>3.348319488894361</v>
       </c>
       <c r="G16">
-        <v>0.0008103921792076488</v>
+        <v>0.002537130133183714</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08116608678383486</v>
+        <v>0.140976434204255</v>
       </c>
       <c r="K16">
-        <v>2.078746555598144</v>
+        <v>0.9826798119327123</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.778718045454049</v>
+        <v>0.4591551222734651</v>
       </c>
       <c r="N16">
-        <v>1.863161999772075</v>
+        <v>3.03572720687329</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.84788214174398</v>
+        <v>0.9377664357302535</v>
       </c>
       <c r="C17">
-        <v>0.2732910763054122</v>
+        <v>0.1102552910942052</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1902435054285192</v>
+        <v>0.1747960791733902</v>
       </c>
       <c r="F17">
-        <v>3.100882615905533</v>
+        <v>3.329571030348944</v>
       </c>
       <c r="G17">
-        <v>0.0008133430589503801</v>
+        <v>0.002538748853406954</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08113336718342623</v>
+        <v>0.1410666654501114</v>
       </c>
       <c r="K17">
-        <v>1.988245201676477</v>
+        <v>0.9609626370184401</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7452830319279045</v>
+        <v>0.4518021049703762</v>
       </c>
       <c r="N17">
-        <v>1.864415014625919</v>
+        <v>3.0375517422858</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.800375759070192</v>
+        <v>0.9263452536414718</v>
       </c>
       <c r="C18">
-        <v>0.2659375677480966</v>
+        <v>0.1084819951736051</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1854809651669953</v>
+        <v>0.1739374941530585</v>
       </c>
       <c r="F18">
-        <v>3.043419169966768</v>
+        <v>3.318939857609621</v>
       </c>
       <c r="G18">
-        <v>0.0008150481319249896</v>
+        <v>0.002539692623265959</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08112816722134397</v>
+        <v>0.1411222218847854</v>
       </c>
       <c r="K18">
-        <v>1.936563680932835</v>
+        <v>0.9485223104741181</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7261759643014898</v>
+        <v>0.4475978899150306</v>
       </c>
       <c r="N18">
-        <v>1.86542567722357</v>
+        <v>3.038674614059758</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.784346331135879</v>
+        <v>0.922486717946299</v>
       </c>
       <c r="C19">
-        <v>0.263457172348069</v>
+        <v>0.107882570256379</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1838726126386092</v>
+        <v>0.1736483850488213</v>
       </c>
       <c r="F19">
-        <v>3.024071488809966</v>
+        <v>3.315366491969513</v>
       </c>
       <c r="G19">
-        <v>0.0008156268292662247</v>
+        <v>0.002540014355977727</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0811286860149707</v>
+        <v>0.1411416601351014</v>
       </c>
       <c r="K19">
-        <v>1.919126575888043</v>
+        <v>0.9443189455234915</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.719727076871493</v>
+        <v>0.4461787151508858</v>
       </c>
       <c r="N19">
-        <v>1.865816446774588</v>
+        <v>3.039067402329479</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.856701370735749</v>
+        <v>0.9398842702434251</v>
       </c>
       <c r="C20">
-        <v>0.2746565985802363</v>
+        <v>0.1105839558257173</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1911269586023678</v>
+        <v>0.1749557404077535</v>
       </c>
       <c r="F20">
-        <v>3.11157018960111</v>
+        <v>3.331551054607928</v>
       </c>
       <c r="G20">
-        <v>0.0008130281366080916</v>
+        <v>0.002538575221615642</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08113542631568649</v>
+        <v>0.1410566815072443</v>
       </c>
       <c r="K20">
-        <v>1.997840051942319</v>
+        <v>0.9632692049851528</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7488292253856272</v>
+        <v>0.4525822536989565</v>
       </c>
       <c r="N20">
-        <v>1.864251324971917</v>
+        <v>3.037349913182226</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.103998286505885</v>
+        <v>0.9989288546055377</v>
       </c>
       <c r="C21">
-        <v>0.3129996365196632</v>
+        <v>0.1197290490305534</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2158132216839803</v>
+        <v>0.1794589394168256</v>
       </c>
       <c r="F21">
-        <v>3.413639322260707</v>
+        <v>3.387751525116045</v>
       </c>
       <c r="G21">
-        <v>0.0008043863942959195</v>
+        <v>0.002533891732984519</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08132543893452748</v>
+        <v>0.1408149003418693</v>
       </c>
       <c r="K21">
-        <v>2.266958116693331</v>
+        <v>1.02754755582356</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8481531310564847</v>
+        <v>0.474396622269154</v>
       </c>
       <c r="N21">
-        <v>1.862552053014113</v>
+        <v>3.032457770677155</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.269171889272116</v>
+        <v>1.03796003086012</v>
       </c>
       <c r="C22">
-        <v>0.3386699150370021</v>
+        <v>0.1257577160875769</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2322090093488853</v>
+        <v>0.1824843397837483</v>
       </c>
       <c r="F22">
-        <v>3.617763115313068</v>
+        <v>3.425842863275335</v>
       </c>
       <c r="G22">
-        <v>0.000798796331785702</v>
+        <v>0.002530943428829117</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08158546549676871</v>
+        <v>0.1406895539140969</v>
       </c>
       <c r="K22">
-        <v>2.446789232373419</v>
+        <v>1.070012472353568</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9143723296180113</v>
+        <v>0.4888769461203424</v>
       </c>
       <c r="N22">
-        <v>1.864320675755849</v>
+        <v>3.029917100068786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.180661912852031</v>
+        <v>1.017087805095912</v>
       </c>
       <c r="C23">
-        <v>0.324907978270744</v>
+        <v>0.1225353267820992</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2234323584068392</v>
+        <v>0.1808621076998094</v>
       </c>
       <c r="F23">
-        <v>3.508159033265457</v>
+        <v>3.405388084548633</v>
       </c>
       <c r="G23">
-        <v>0.0008017751650637153</v>
+        <v>0.002532506721981844</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0814334983562226</v>
+        <v>0.1407534593476285</v>
       </c>
       <c r="K23">
-        <v>2.350416266995438</v>
+        <v>1.047306351661376</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8789000311250277</v>
+        <v>0.4811280690324011</v>
       </c>
       <c r="N23">
-        <v>1.863097904406999</v>
+        <v>3.031212896034134</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.852713223858331</v>
+        <v>0.9389266594918411</v>
       </c>
       <c r="C24">
-        <v>0.2740390797842167</v>
+        <v>0.1104353511385909</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1907274782381521</v>
+        <v>0.1748835299135223</v>
       </c>
       <c r="F24">
-        <v>3.106736395300828</v>
+        <v>3.330655426024975</v>
       </c>
       <c r="G24">
-        <v>0.0008131704862505043</v>
+        <v>0.00253865367953515</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08113445314174328</v>
+        <v>0.141061183782238</v>
       </c>
       <c r="K24">
-        <v>1.993501140067707</v>
+        <v>0.9622262649525339</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7472256347625574</v>
+        <v>0.4522294764092649</v>
       </c>
       <c r="N24">
-        <v>1.864324428049827</v>
+        <v>3.037440929875999</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.511560430768526</v>
+        <v>0.856505416866014</v>
       </c>
       <c r="C25">
-        <v>0.2213036372582877</v>
+        <v>0.0976025369011353</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1563936306495677</v>
+        <v>0.1687891534386736</v>
       </c>
       <c r="F25">
-        <v>2.698289030102643</v>
+        <v>3.255869989932521</v>
       </c>
       <c r="G25">
-        <v>0.0008257660380868461</v>
+        <v>0.002545771089895288</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08132609659327272</v>
+        <v>0.1415329024444176</v>
       </c>
       <c r="K25">
-        <v>1.622462209520336</v>
+        <v>0.8723945443021819</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6098357610437191</v>
+        <v>0.4220149139577458</v>
       </c>
       <c r="N25">
-        <v>1.876598676901907</v>
+        <v>3.046965391872547</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_203/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7974165678998304</v>
+        <v>1.268566891080837</v>
       </c>
       <c r="C2">
-        <v>0.08833590539570935</v>
+        <v>0.1838314768321823</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1646067732740342</v>
+        <v>0.1317418097555674</v>
       </c>
       <c r="F2">
-        <v>3.205780380381213</v>
+        <v>2.414476899386784</v>
       </c>
       <c r="G2">
-        <v>0.002551435093365505</v>
+        <v>0.0008353576924445297</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1419999282367996</v>
+        <v>0.08184314710904772</v>
       </c>
       <c r="K2">
-        <v>0.8078892130485826</v>
+        <v>1.358299861762134</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4005836055683574</v>
+        <v>0.5117082400890567</v>
       </c>
       <c r="N2">
-        <v>3.056378165865667</v>
+        <v>1.893690667072192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.758356083015201</v>
+        <v>1.107853708221</v>
       </c>
       <c r="C3">
-        <v>0.08216649578149315</v>
+        <v>0.1590756393963204</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.161962656734314</v>
+        <v>0.1153459377592796</v>
       </c>
       <c r="F3">
-        <v>3.174920944638288</v>
+        <v>2.230866025386874</v>
       </c>
       <c r="G3">
-        <v>0.002555540182250857</v>
+        <v>0.0008420809404843856</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1423908577401889</v>
+        <v>0.08239962206936013</v>
       </c>
       <c r="K3">
-        <v>0.7651800901005856</v>
+        <v>1.183619603215732</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3865647714351752</v>
+        <v>0.4466784088302944</v>
       </c>
       <c r="N3">
-        <v>3.064247697972036</v>
+        <v>1.909707867137215</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7348552175842258</v>
+        <v>1.010793563395993</v>
       </c>
       <c r="C4">
-        <v>0.07843218227955617</v>
+        <v>0.1441302498675157</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1604331549223623</v>
+        <v>0.1054081553108368</v>
       </c>
       <c r="F4">
-        <v>3.157491198159846</v>
+        <v>2.121895333177193</v>
       </c>
       <c r="G4">
-        <v>0.002558192972678227</v>
+        <v>0.0008463263597289553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1426675231180283</v>
+        <v>0.08283462613938752</v>
       </c>
       <c r="K4">
-        <v>0.7394490462849319</v>
+        <v>1.078129189741389</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.378205603375271</v>
+        <v>0.4073522276678077</v>
       </c>
       <c r="N4">
-        <v>3.069812667018795</v>
+        <v>1.921555512430942</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7253994948787579</v>
+        <v>0.9716019236247178</v>
       </c>
       <c r="C5">
-        <v>0.07692383711302853</v>
+        <v>0.1380957507094536</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1598335466216341</v>
+        <v>0.1013877023005669</v>
       </c>
       <c r="F5">
-        <v>3.150769788022714</v>
+        <v>2.078362645685814</v>
       </c>
       <c r="G5">
-        <v>0.002559307369848392</v>
+        <v>0.0008480869088202114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1427894683138007</v>
+        <v>0.08303422593528609</v>
       </c>
       <c r="K5">
-        <v>0.7290869425008566</v>
+        <v>1.03553314390814</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.37486162084911</v>
+        <v>0.3914611918548729</v>
       </c>
       <c r="N5">
-        <v>3.072264479576361</v>
+        <v>1.926865823690378</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7238366848620501</v>
+        <v>0.9651147164510405</v>
       </c>
       <c r="C6">
-        <v>0.07667418527485381</v>
+        <v>0.1370968727056123</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1597354132896953</v>
+        <v>0.1007217861402907</v>
       </c>
       <c r="F6">
-        <v>3.14967672496357</v>
+        <v>2.071184794962861</v>
       </c>
       <c r="G6">
-        <v>0.002559494433059656</v>
+        <v>0.0008483811174169836</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1428102727032083</v>
+        <v>0.08306868657602351</v>
       </c>
       <c r="K6">
-        <v>0.7273737725908518</v>
+        <v>1.028482354048748</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.37431012592846</v>
+        <v>0.3888301645610639</v>
       </c>
       <c r="N6">
-        <v>3.072682708549436</v>
+        <v>1.927776060609801</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7347272045050772</v>
+        <v>1.010263607129332</v>
       </c>
       <c r="C7">
-        <v>0.07841178600243381</v>
+        <v>0.144048650693378</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1604249724774043</v>
+        <v>0.1053538196913948</v>
       </c>
       <c r="F7">
-        <v>3.157399007298807</v>
+        <v>2.121304791820506</v>
       </c>
       <c r="G7">
-        <v>0.002558207866613258</v>
+        <v>0.0008463499782529346</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1426691304690735</v>
+        <v>0.08283722902741175</v>
       </c>
       <c r="K7">
-        <v>0.7393087997130294</v>
+        <v>1.0775532020578</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3781602524510248</v>
+        <v>0.4071373915316912</v>
       </c>
       <c r="N7">
-        <v>3.069844988240021</v>
+        <v>1.921625206645928</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7838482239577615</v>
+        <v>1.21278845041266</v>
       </c>
       <c r="C8">
-        <v>0.08619748341266131</v>
+        <v>0.175237644580136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1636755954116396</v>
+        <v>0.1260596379243317</v>
       </c>
       <c r="F8">
-        <v>3.194824723888274</v>
+        <v>2.35034008441086</v>
       </c>
       <c r="G8">
-        <v>0.002552823145081367</v>
+        <v>0.0008376521455806007</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1421271114510994</v>
+        <v>0.08201493848575581</v>
       </c>
       <c r="K8">
-        <v>0.7930606580086419</v>
+        <v>1.297671841845471</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.395698321410805</v>
+        <v>0.4891504438071692</v>
       </c>
       <c r="N8">
-        <v>3.058939261869853</v>
+        <v>1.89878066564286</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8840193265573077</v>
+        <v>1.625041020761842</v>
       </c>
       <c r="C9">
-        <v>0.1018966026306742</v>
+        <v>0.2388271593704729</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1707947048579044</v>
+        <v>0.1678499783044174</v>
       </c>
       <c r="F9">
-        <v>3.28028657032516</v>
+        <v>2.832984613394359</v>
       </c>
       <c r="G9">
-        <v>0.002543308108356596</v>
+        <v>0.0008214773933462729</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1413553749022611</v>
+        <v>0.08119903877954116</v>
       </c>
       <c r="K9">
-        <v>0.902398138992254</v>
+        <v>1.74585954370815</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4320655779745124</v>
+        <v>0.6555848359271934</v>
       </c>
       <c r="N9">
-        <v>3.04338334812465</v>
+        <v>1.871128087219404</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9599916247516944</v>
+        <v>1.940599986862651</v>
       </c>
       <c r="C10">
-        <v>0.1137020496832406</v>
+        <v>0.2876533449905025</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1764783610762919</v>
+        <v>0.1995207576507596</v>
       </c>
       <c r="F10">
-        <v>3.350479487285099</v>
+        <v>3.213544891301382</v>
       </c>
       <c r="G10">
-        <v>0.002536947147707674</v>
+        <v>0.0008100564830851967</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1409666341701765</v>
+        <v>0.08117171252175126</v>
       </c>
       <c r="K10">
-        <v>0.9851647880634289</v>
+        <v>2.089125890573769</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4599975476568687</v>
+        <v>0.7825506506190862</v>
       </c>
       <c r="N10">
-        <v>3.035528975784899</v>
+        <v>1.863059269177612</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9950771101892997</v>
+        <v>2.087776036427556</v>
       </c>
       <c r="C11">
-        <v>0.1191334506376052</v>
+        <v>0.3104811561468068</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1791623379024685</v>
+        <v>0.2141989447472454</v>
       </c>
       <c r="F11">
-        <v>3.384030539546131</v>
+        <v>3.393689583515453</v>
       </c>
       <c r="G11">
-        <v>0.0025341886415407</v>
+        <v>0.000804942805235733</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.140828664746973</v>
+        <v>0.08130545010022772</v>
       </c>
       <c r="K11">
-        <v>1.023355915202785</v>
+        <v>2.249299994625289</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4729700678933213</v>
+        <v>0.8416443338081905</v>
       </c>
       <c r="N11">
-        <v>3.032736544231383</v>
+        <v>1.862499257984751</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.008439050703601</v>
+        <v>2.144110096360635</v>
       </c>
       <c r="C12">
-        <v>0.1211990862408072</v>
+        <v>0.3192289663019494</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1801928239326855</v>
+        <v>0.219801682459611</v>
       </c>
       <c r="F12">
-        <v>3.396969063053405</v>
+        <v>3.463044712513579</v>
       </c>
       <c r="G12">
-        <v>0.002533163385515413</v>
+        <v>0.0008030164415425764</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.140782022753708</v>
+        <v>0.08137920108372754</v>
       </c>
       <c r="K12">
-        <v>1.037896145337783</v>
+        <v>2.310623113473582</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4779207979928302</v>
+        <v>0.8642430579335638</v>
       </c>
       <c r="N12">
-        <v>3.031791733152502</v>
+        <v>1.862777147870261</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.005557940540257</v>
+        <v>2.131949418353202</v>
       </c>
       <c r="C13">
-        <v>0.1207538179582457</v>
+        <v>0.3173401163290919</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1799702627901141</v>
+        <v>0.2185929640319628</v>
       </c>
       <c r="F13">
-        <v>3.394172128510917</v>
+        <v>3.448055036315793</v>
       </c>
       <c r="G13">
-        <v>0.00253338333468738</v>
+        <v>0.0008034308989935226</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1407918184670365</v>
+        <v>0.08136225385922558</v>
       </c>
       <c r="K13">
-        <v>1.034761167503916</v>
+        <v>2.297384795372551</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4768528646546031</v>
+        <v>0.8593656830053149</v>
       </c>
       <c r="N13">
-        <v>3.031990200137912</v>
+        <v>1.86269477772376</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9961748836698803</v>
+        <v>2.092398124534327</v>
       </c>
       <c r="C14">
-        <v>0.1193032131133975</v>
+        <v>0.3111986806255516</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1792468337763466</v>
+        <v>0.214658961779449</v>
       </c>
       <c r="F14">
-        <v>3.385090317579738</v>
+        <v>3.399371877922107</v>
       </c>
       <c r="G14">
-        <v>0.002534103906469687</v>
+        <v>0.000804784130516296</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1408247150849178</v>
+        <v>0.08131104168360537</v>
       </c>
       <c r="K14">
-        <v>1.02455058151935</v>
+        <v>2.254331129575661</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4733765991903311</v>
+        <v>0.8434989331488225</v>
       </c>
       <c r="N14">
-        <v>3.03265655475569</v>
+        <v>1.862512039317281</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9904373742701296</v>
+        <v>2.068252699440507</v>
       </c>
       <c r="C15">
-        <v>0.1184158355596026</v>
+        <v>0.3074508081662373</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1788055507193604</v>
+        <v>0.2122552286764616</v>
       </c>
       <c r="F15">
-        <v>3.379557866298512</v>
+        <v>3.369704300623255</v>
       </c>
       <c r="G15">
-        <v>0.002534547791865763</v>
+        <v>0.0008056142831514132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1408455954591226</v>
+        <v>0.08128274821525494</v>
       </c>
       <c r="K15">
-        <v>1.018306483127361</v>
+        <v>2.228049451209898</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.471252277899417</v>
+        <v>0.8338098165728454</v>
       </c>
       <c r="N15">
-        <v>3.033079394240275</v>
+        <v>1.862465260712455</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9577093009161217</v>
+        <v>1.931061323748509</v>
       </c>
       <c r="C16">
-        <v>0.1133483320670621</v>
+        <v>0.2861751238898478</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1763049349835555</v>
+        <v>0.198567411226378</v>
       </c>
       <c r="F16">
-        <v>3.348319488894361</v>
+        <v>3.201924021552315</v>
       </c>
       <c r="G16">
-        <v>0.002537130133183714</v>
+        <v>0.0008103921792591177</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.140976434204255</v>
+        <v>0.08116608678376025</v>
       </c>
       <c r="K16">
-        <v>0.9826798119327123</v>
+        <v>2.078746555598201</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4591551222734651</v>
+        <v>0.7787180454540561</v>
       </c>
       <c r="N16">
-        <v>3.03572720687329</v>
+        <v>1.863161999772132</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9377664357302535</v>
+        <v>1.847882141744122</v>
       </c>
       <c r="C17">
-        <v>0.1102552910942052</v>
+        <v>0.2732910763056964</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1747960791733902</v>
+        <v>0.190243505428505</v>
       </c>
       <c r="F17">
-        <v>3.329571030348944</v>
+        <v>3.100882615905562</v>
       </c>
       <c r="G17">
-        <v>0.002538748853406954</v>
+        <v>0.0008133430589429173</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1410666654501114</v>
+        <v>0.08113336718354702</v>
       </c>
       <c r="K17">
-        <v>0.9609626370184401</v>
+        <v>1.988245201676506</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4518021049703762</v>
+        <v>0.7452830319278974</v>
       </c>
       <c r="N17">
-        <v>3.0375517422858</v>
+        <v>1.864415014625962</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9263452536414718</v>
+        <v>1.800375759070107</v>
       </c>
       <c r="C18">
-        <v>0.1084819951736051</v>
+        <v>0.2659375677484093</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1739374941530585</v>
+        <v>0.1854809651669882</v>
       </c>
       <c r="F18">
-        <v>3.318939857609621</v>
+        <v>3.043419169966796</v>
       </c>
       <c r="G18">
-        <v>0.002539692623265959</v>
+        <v>0.0008150481319829547</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1411222218847854</v>
+        <v>0.08112816722127647</v>
       </c>
       <c r="K18">
-        <v>0.9485223104741181</v>
+        <v>1.936563680932778</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4475978899150306</v>
+        <v>0.7261759643014898</v>
       </c>
       <c r="N18">
-        <v>3.038674614059758</v>
+        <v>1.86542567722357</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.922486717946299</v>
+        <v>1.784346331135907</v>
       </c>
       <c r="C19">
-        <v>0.107882570256379</v>
+        <v>0.2634571723478132</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1736483850488213</v>
+        <v>0.1838726126386163</v>
       </c>
       <c r="F19">
-        <v>3.315366491969513</v>
+        <v>3.024071488809966</v>
       </c>
       <c r="G19">
-        <v>0.002540014355977727</v>
+        <v>0.0008156268294242652</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1411416601351014</v>
+        <v>0.08112868601489964</v>
       </c>
       <c r="K19">
-        <v>0.9443189455234915</v>
+        <v>1.919126575888043</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4461787151508858</v>
+        <v>0.7197270768714787</v>
       </c>
       <c r="N19">
-        <v>3.039067402329479</v>
+        <v>1.86581644677463</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9398842702434251</v>
+        <v>1.856701370735635</v>
       </c>
       <c r="C20">
-        <v>0.1105839558257173</v>
+        <v>0.2746565985801794</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1749557404077535</v>
+        <v>0.1911269586024318</v>
       </c>
       <c r="F20">
-        <v>3.331551054607928</v>
+        <v>3.111570189601082</v>
       </c>
       <c r="G20">
-        <v>0.002538575221615642</v>
+        <v>0.0008130281366677955</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1410566815072443</v>
+        <v>0.0811354263157078</v>
       </c>
       <c r="K20">
-        <v>0.9632692049851528</v>
+        <v>1.997840051942404</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4525822536989565</v>
+        <v>0.7488292253856059</v>
       </c>
       <c r="N20">
-        <v>3.037349913182226</v>
+        <v>1.864251324971931</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9989288546055377</v>
+        <v>2.103998286505828</v>
       </c>
       <c r="C21">
-        <v>0.1197290490305534</v>
+        <v>0.3129996365196632</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1794589394168256</v>
+        <v>0.2158132216840372</v>
       </c>
       <c r="F21">
-        <v>3.387751525116045</v>
+        <v>3.413639322260707</v>
       </c>
       <c r="G21">
-        <v>0.002533891732984519</v>
+        <v>0.0008043863943554783</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1408149003418693</v>
+        <v>0.08132543893449551</v>
       </c>
       <c r="K21">
-        <v>1.02754755582356</v>
+        <v>2.266958116693303</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.474396622269154</v>
+        <v>0.8481531310564847</v>
       </c>
       <c r="N21">
-        <v>3.032457770677155</v>
+        <v>1.862552053014127</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.03796003086012</v>
+        <v>2.269171889272229</v>
       </c>
       <c r="C22">
-        <v>0.1257577160875769</v>
+        <v>0.3386699150367747</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1824843397837483</v>
+        <v>0.2322090093488924</v>
       </c>
       <c r="F22">
-        <v>3.425842863275335</v>
+        <v>3.617763115313096</v>
       </c>
       <c r="G22">
-        <v>0.002530943428829117</v>
+        <v>0.0007987963318991668</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1406895539140969</v>
+        <v>0.08158546549676515</v>
       </c>
       <c r="K22">
-        <v>1.070012472353568</v>
+        <v>2.446789232373447</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4888769461203424</v>
+        <v>0.9143723296180113</v>
       </c>
       <c r="N22">
-        <v>3.029917100068786</v>
+        <v>1.864320675755877</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.017087805095912</v>
+        <v>2.180661912852202</v>
       </c>
       <c r="C23">
-        <v>0.1225353267820992</v>
+        <v>0.3249079782705451</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1808621076998094</v>
+        <v>0.2234323584068107</v>
       </c>
       <c r="F23">
-        <v>3.405388084548633</v>
+        <v>3.508159033265457</v>
       </c>
       <c r="G23">
-        <v>0.002532506721981844</v>
+        <v>0.0008017751650608232</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1407534593476285</v>
+        <v>0.08143349835621549</v>
       </c>
       <c r="K23">
-        <v>1.047306351661376</v>
+        <v>2.350416266995524</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4811280690324011</v>
+        <v>0.8789000311250348</v>
       </c>
       <c r="N23">
-        <v>3.031212896034134</v>
+        <v>1.86309790440697</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9389266594918411</v>
+        <v>1.85271322385816</v>
       </c>
       <c r="C24">
-        <v>0.1104353511385909</v>
+        <v>0.2740390797841883</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1748835299135223</v>
+        <v>0.1907274782381307</v>
       </c>
       <c r="F24">
-        <v>3.330655426024975</v>
+        <v>3.106736395300857</v>
       </c>
       <c r="G24">
-        <v>0.00253865367953515</v>
+        <v>0.0008131704862512814</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.141061183782238</v>
+        <v>0.08113445314168999</v>
       </c>
       <c r="K24">
-        <v>0.9622262649525339</v>
+        <v>1.99350114006765</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4522294764092649</v>
+        <v>0.7472256347625503</v>
       </c>
       <c r="N24">
-        <v>3.037440929875999</v>
+        <v>1.864324428049855</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.856505416866014</v>
+        <v>1.51156043076864</v>
       </c>
       <c r="C25">
-        <v>0.0976025369011353</v>
+        <v>0.221303637258643</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1687891534386736</v>
+        <v>0.1563936306495535</v>
       </c>
       <c r="F25">
-        <v>3.255869989932521</v>
+        <v>2.698289030102643</v>
       </c>
       <c r="G25">
-        <v>0.002545771089895288</v>
+        <v>0.0008257660381351947</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1415329024444176</v>
+        <v>0.08132609659332601</v>
       </c>
       <c r="K25">
-        <v>0.8723945443021819</v>
+        <v>1.622462209520421</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4220149139577458</v>
+        <v>0.6098357610437191</v>
       </c>
       <c r="N25">
-        <v>3.046965391872547</v>
+        <v>1.87659867690185</v>
       </c>
       <c r="O25">
         <v>0</v>
